--- a/biology/Médecine/Pierre_Mabille/Pierre_Mabille.xlsx
+++ b/biology/Médecine/Pierre_Mabille/Pierre_Mabille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Mabille est un médecin et écrivain français, né le 2 août 1904 à Reims[1], mort le 13 octobre 1952 (à 48 ans) à Paris. Professeur à l'École d'anthropologie de Paris, il fut un proche d'André Breton, du surréalisme, et notamment du médecin de Man'ha Garreau-Dombasle. Il fut un adepte de l'hermétisme et défenseur de l'imaginaire, et ses ouvrages se situent au carrefour de l'anthropologie, de la sociologie, de la poésie et de la médecine. Qualifié par André Breton d'« homme de grand conseil », il tente dans ses livres une approche de la totalité de l'homme et des civilisations[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Mabille est un médecin et écrivain français, né le 2 août 1904 à Reims, mort le 13 octobre 1952 (à 48 ans) à Paris. Professeur à l'École d'anthropologie de Paris, il fut un proche d'André Breton, du surréalisme, et notamment du médecin de Man'ha Garreau-Dombasle. Il fut un adepte de l'hermétisme et défenseur de l'imaginaire, et ses ouvrages se situent au carrefour de l'anthropologie, de la sociologie, de la poésie et de la médecine. Qualifié par André Breton d'« homme de grand conseil », il tente dans ses livres une approche de la totalité de l'homme et des civilisations.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interne des hôpitaux de Paris, chef de clinique (1931) puis chirurgien, il devient membre du groupe surréaliste en 1934 et collabore à la revue Minotaure[2]. 
-Pierre Mabille est l'inventeur, en médecine, du « Test du village », sur lequel le peintre et réalisateur belge Jean Raine a réalisé un film documentaire[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interne des hôpitaux de Paris, chef de clinique (1931) puis chirurgien, il devient membre du groupe surréaliste en 1934 et collabore à la revue Minotaure. 
+Pierre Mabille est l'inventeur, en médecine, du « Test du village », sur lequel le peintre et réalisateur belge Jean Raine a réalisé un film documentaire.
 En juillet 1940, Mabille accueille André Breton, démobilisé en zone non-occupée, à Salon-de-Provence (Bouches-du-Rhône), puis Jacqueline Lamba et leur fille Aube, dont il fut le médecin-accoucheur en décembre 1935.
-Pierre Mabille est en 1945 à Haïti où il fonde l'Institut français (qui existe encore sur le même site) et lance la revue culturelle franco-haïtienne Conjonctions, qui paraîtra jusqu'en 2018 sous la direction de l'Institut français. En décembre 1945, Breton le retrouve à Haïti. Mabille, alors conseiller culturel de l'ambassade de France à Port-au-Prince, lui offre l'occasion d'assister à des cérémonies vaudoues. À la suite d'une révolution provoquée en partie par la visite de Breton, Mabille est relevé de ses fonctions par le consulat de France en février 1946[4].
+Pierre Mabille est en 1945 à Haïti où il fonde l'Institut français (qui existe encore sur le même site) et lance la revue culturelle franco-haïtienne Conjonctions, qui paraîtra jusqu'en 2018 sous la direction de l'Institut français. En décembre 1945, Breton le retrouve à Haïti. Mabille, alors conseiller culturel de l'ambassade de France à Port-au-Prince, lui offre l'occasion d'assister à des cérémonies vaudoues. À la suite d'une révolution provoquée en partie par la visite de Breton, Mabille est relevé de ses fonctions par le consulat de France en février 1946.
 De retour en France, en 1948, Pierre Mabille collabore à la revue surréaliste Néon.
-Il meurt subitement le 13 octobre 1952, vers 15 h 30, alors qu'il examine un malade. La cause est probablement un accident vasculaire cérébral[5]. Il avait 48 ans.
+Il meurt subitement le 13 octobre 1952, vers 15 h 30, alors qu'il examine un malade. La cause est probablement un accident vasculaire cérébral. Il avait 48 ans.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Œuvre écrite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La Construction de l'homme (Paris, Flory, 1936) appelle à une réconciliation du microcosme et du macrocosme dans une destinée où l'individu s'émanciperait d'une civilisation qui l'entrave et l'aliène[2].
-Thérèse de Lisieux (Paris, Corti, 1936) est une étude médico-psychologique de la sainte « dont l'évolution tout entière est dessinée par la pathologie[6] ». Cet ouvrage a été réédité en 1975 par les éditions du Sagittaire, en 1978 par les éditions Denoël, et en 1996 par les éditions Allia.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Construction de l'homme (Paris, Flory, 1936) appelle à une réconciliation du microcosme et du macrocosme dans une destinée où l'individu s'émanciperait d'une civilisation qui l'entrave et l'aliène.
+Thérèse de Lisieux (Paris, Corti, 1936) est une étude médico-psychologique de la sainte « dont l'évolution tout entière est dessinée par la pathologie ». Cet ouvrage a été réédité en 1975 par les éditions du Sagittaire, en 1978 par les éditions Denoël, et en 1996 par les éditions Allia.
 Le Miroir du Merveilleux (1940) est une anthologie surréaliste, illustrée par Yves Tanguy et André Masson ; repris en 1962 par les Éditions de Minuit avec une préface d’André Breton et des illustrations par Max Ernst, Victor Brauner, Jacques Hérold, Wifredo Lam et Matta.</t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Cessez d'opter sans raison valable pour la matière sans espoir comme le demandent les matérialistes attardés ou pour une spiritualité illusoire en suivant les conseils des religions chrétiennes... Dirigez-vous, au contraire, vers l'unité de votre être. Soyez apôtre d'un amour difficile mais toujours possible, qui modèle des formes de vie plus large et qui soit la réelle assurance du progrès individuel contre la mort. »
@@ -613,10 +631,12 @@
           <t>Appréciation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« La quête de Pierre Mabille est celle d'une pensée globale, qui ne soit pas, comme dans les savoirs spécialisés, séparée de la vie. Son matérialisme est intégral... Il s'agit d'en revenir à la nature fondamentale des êtres et des choses.[...] L'analyse des mécanismes qui répriment chacun au nom du bien public n'est qu'un constat d'aliénation dès l'instant qu'elle ne se fonde sur la réalisation à laquelle l'homme concret aspire. Ainsi Mabille examine-t-il comment une société destinée à libérer l'homme des terreurs héritées du monde animal produit à son tour une terreur sociale qui empêche l'épanouissement des qualités humaines[2]. »
+« La quête de Pierre Mabille est celle d'une pensée globale, qui ne soit pas, comme dans les savoirs spécialisés, séparée de la vie. Son matérialisme est intégral... Il s'agit d'en revenir à la nature fondamentale des êtres et des choses.[...] L'analyse des mécanismes qui répriment chacun au nom du bien public n'est qu'un constat d'aliénation dès l'instant qu'elle ne se fonde sur la réalisation à laquelle l'homme concret aspire. Ainsi Mabille examine-t-il comment une société destinée à libérer l'homme des terreurs héritées du monde animal produit à son tour une terreur sociale qui empêche l'épanouissement des qualités humaines. »
 — Raoul Vaneigem, Universalis</t>
         </is>
       </c>
@@ -645,7 +665,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La Construction de l'homme, Paris, Jean Flory, 1936
 Thérèse de Lisieux,  Paris, José Corti,1936 ; rééditions : Le Sagittaire, 1975 (postface de Radovan Ivsic); Denoêl, 1978 ; Allia, 1996  (ISBN 9782911188190)
